--- a/testingweek/testingData.xlsx
+++ b/testingweek/testingData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_INPUT" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Test ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>TEST-002</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the happy SAD Path Test </t>
-  </si>
-  <si>
     <t>wean</t>
   </si>
   <si>
@@ -72,13 +69,37 @@
     <t>**Successful Login**</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>myPassword33</t>
   </si>
   <si>
     <t>heyyyyy</t>
+  </si>
+  <si>
+    <t>TEST-003</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>TEST-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the SAD path test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the SAD Path Test </t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -398,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,13 +464,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -457,7 +478,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -466,10 +487,50 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -479,28 +540,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
